--- a/results/I3_N5_M2_T15_C150_DepCentral_s2_res.xlsx
+++ b/results/I3_N5_M2_T15_C150_DepCentral_s2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>623.6128370155785</v>
+        <v>500.714365082849</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2999999523162842</v>
+        <v>0.1689999103546143</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1.255515725680564e-05</v>
       </c>
     </row>
     <row r="6">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.980770752170766</v>
+        <v>2.053804274997986</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.779242685422245</v>
+        <v>2.053804274997986</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>331.0199999994782</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>270.08</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -598,64 +598,9 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -700,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -835,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -846,7 +791,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -929,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.958585032589914</v>
+        <v>9.865489312505037</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.29375422704619</v>
+        <v>9.200658506961251</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -991,7 +936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,7 +974,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1043,93 +988,9 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1232,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>192.0400000000547</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
@@ -1243,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>177.55</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1254,7 +1115,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>178.1100000000519</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -1265,7 +1126,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>179.6100000000539</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
@@ -1276,7 +1137,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>185.0799999996602</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>151.0650000000334</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1298,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>143.15</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1309,7 +1170,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>141.6400000000322</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1320,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>144.1900000000348</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1331,7 +1192,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>145.6099999998067</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -1342,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>36.21999999999913</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18">
@@ -1353,7 +1214,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>39.5899999999998</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19">
@@ -1364,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>32.85499999999893</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20">
@@ -1375,7 +1236,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>40.9899999999996</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21">
@@ -1386,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>41.05</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
@@ -1397,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>142.3900000000049</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
@@ -1408,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>152.0800000000037</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1419,7 +1280,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>135.4250000000039</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -1430,7 +1291,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>151.0400000000041</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
@@ -1441,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>148.7250000000045</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -1452,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>46.62000000001203</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1463,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>41.47500000001261</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1474,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.92500000001145</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1485,7 +1346,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>39.65500000001211</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1496,7 +1357,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.7599999999437</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1507,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>142.3900000000204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33">
@@ -1518,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>152.080000000016</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34">
@@ -1529,7 +1390,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>135.4250000000182</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
@@ -1540,7 +1401,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>151.0400000000211</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36">
@@ -1551,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>148.7250000000187</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
@@ -1562,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>192.0400000000692</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38">
@@ -1573,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>177.55</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39">
@@ -1584,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>178.1100000000664</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40">
@@ -1595,7 +1456,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>179.6100000000702</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41">
@@ -1606,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>185.0799999995225</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1664,7 +1525,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.08000000001158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1686,7 +1547,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1.040000000016676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1708,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>42.04000000006488</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -1719,7 +1580,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>27.55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1730,7 +1591,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>28.11000000006197</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1741,7 +1602,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>29.61000000006584</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1752,7 +1613,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>35.07999999951812</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1810,7 +1671,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1821,7 +1682,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1832,7 +1693,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1843,7 +1704,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1854,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1865,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1876,7 +1737,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1887,7 +1748,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1898,7 +1759,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1909,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1920,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1931,7 +1792,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>5.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1942,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1953,7 +1814,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>4.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1964,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1975,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1986,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1997,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2008,7 +1869,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2019,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2030,7 +1891,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2041,7 +1902,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2052,7 +1913,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2063,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2077,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2157,39 +2018,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
